--- a/ask_projem/siirler.xlsx
+++ b/ask_projem/siirler.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ebed7f21b113521/Masaüstü/ask_uygulamasi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ebed7f21b113521/Masaüstü/ask_projem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8311C204-FAB0-4B76-9E91-C3D823AFDC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{8311C204-FAB0-4B76-9E91-C3D823AFDC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2D70750-7400-471B-90FD-110917A39492}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BD387D39-C2DF-4A25-AD2A-27062D58BA4B}"/>
   </bookViews>
@@ -36,51 +36,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Şiir</t>
   </si>
   <si>
-    <t>Dünyanın dönmesinin bir nedeni var,
-Sensin sebep evrenin varlığına!
-Senin için yağar yağmur, kar…
-Bir ömür verilir seninle bir anlığına…</t>
-  </si>
-  <si>
-    <t>Gelmek yanına, hissetmek seni…
-Benim için rüyaların en güzeli.
-Varlığın bana armağan, yokluğun zulüm,
-Bulamam böylesine güzeli.</t>
-  </si>
-  <si>
-    <t>Her anım sana varır,
-Her saniyem seninle çarpar.
-Bir neden bulsa aşkına dağlar,
-Onlar da nedensiz ayağa kalkar.</t>
-  </si>
-  <si>
-    <t>Aşk,
-Mecnun’u çöllere düşüren güç.
-Aşk,
-Aslı’nın yoluna düşüren güç.</t>
-  </si>
-  <si>
-    <t>Bir çocuğun sesinde,
-Senin sedan yankılanır.
-Zamanın ötesinde,
-Varlığın sorgulanır.</t>
-  </si>
-  <si>
-    <t>Çileyse bu zaten çile!
-Dedikler de inanmadım.
-İçine girdim bile bile,
-Daha önce yaşamadım.</t>
-  </si>
-  <si>
-    <t>Her şeyde sen varsın,
-Baktığım her yönde sen…
-Kıyamet kopsun varsın,
-Cehennemim, cennetim sen…</t>
+    <t>Cemal Süreya - "Desem ki":
+Desem ki vakitlerden bir nisan akşamıdır,
+Rüzgârların en ferahlatıcısı senden esiyor,
+Sende seyrediyorum denizlerin en mavisini,
+Ormanların en kuytusunu sende gezmekteyim,
+Senden kopardım çiçeklerin en solmazını,
+Toprakların en bereketlisini sende sürdüm,
+Sende tattım yemişlerin cümlesini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazım Hikmet - "Seviyorum Seni":
+Seviyorum seni ekmeği tuza banıp yer gibi
+geceleyin ateşler içinde uyanarak
+ağzımı dayayıp musluğa su içer gibi,
+ağır posta paketini, neyin nesi belirsiz,
+telaşlı, sevinçli, kuşkulu açar gibi,
+seviyorum seni denizi uçakla ilk defa geçer gibi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Özdemir Asaf - "Lavinia":
+Sana gitme demeyeceğim.
+Üşüyorsun ceketimi al.
+Günün en güzel saatleri bunlar.
+Yanımda kal.
+Sana gitme demeyeceğim.
+Ama gitme, Lavinia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attila İlhan - "Bir Adın Kalmalı":
+Bir Adın Kalmalı
+Geriye
+Bütün kırılmış şeylerin
+Nihayetinde
+Aynaların ardında sır
+Yalnızlığın peşinde kuvvet
+Evet
+Nihayet
+Bir Adın Kalmalı
+Geriye. </t>
+  </si>
+  <si>
+    <t>Turgut Uyar - "Hasret Bir Şey Değil":
+Hasret bir şey değil,
+Elagözlüm
+Ömrümüz böyle olmamalıydı
+Hep aşkta durmalıydı çağımız.</t>
+  </si>
+  <si>
+    <t>Ahmed Arif - "Hasretinden Prangalar Eskittim" 
+Seni anlatabilmek seni.
+İyi çocuklara, kahramanlara.
+Seni anlatabilmek seni,
+Namussuz bir dünya sofrasında,
+Tırnaklarımda et, dişlerimde kan…</t>
+  </si>
+  <si>
+    <t>Attila İlhan - "Ben Sana Mecburum" 
+Ben sana mecburum bilemezsin
+Adını mıh gibi aklımda tutuyorum
+Büyüdükçe büyüyor gözlerin
+Ben sana mecburum bilemezsin
+İçimi seninle ısıtıyorum.</t>
+  </si>
+  <si>
+    <t>Cemal Süreya - "Tek Yasak"
+Özgürlüğün geldiği gün,
+O gün ölmek yasak!
+Ve aşkın olduğu her yerde,
+Yalnız kalmak yasak…</t>
+  </si>
+  <si>
+    <t>Yavuz Bülent Bakiler - "Söz"
+Seninle bir yağmur başlıyor gözlerimde
+Bir sevmek alıp başını gidiyor.
+Öyle ak, öyle temiz ki bu sevgi
+İnsan her şeyi seninle sevmek istiyor.</t>
+  </si>
+  <si>
+    <t>Cahit Külebi - "Hikâye" 
+Senin dudakların pembe
+Ellerin beyaz,
+Al tut ellerimi bebek
+Tut biraz!
+Benim doğduğum köylerde
+Ceviz ağaçları yoktu,
+Bu yüzden serinliği sevmem,
+Bu yüzden biraz hayalim.</t>
   </si>
 </sst>
 </file>
@@ -148,6 +195,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5FDC4-3CB7-4A90-858A-877C3FA6D27A}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,39 +537,54 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="93" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
